--- a/data/trans_bre/P1802_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1802_2016_2023-Provincia-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>5.017687894307405</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>9.806298169517314</v>
+        <v>9.806298169517309</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.2447021098355428</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3517433830073187</v>
+        <v>0.3517433830073184</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.109174670551174</v>
+        <v>-2.393803399661772</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.402308392897956</v>
+        <v>2.677353155806043</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.08487928718859319</v>
+        <v>-0.100389178942419</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1053640847003796</v>
+        <v>0.08546301097309916</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.63462835827942</v>
+        <v>12.2293703830179</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.8639648012494</v>
+        <v>16.21931267599744</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.6960867024638614</v>
+        <v>0.6968143586771812</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.6610166226938812</v>
+        <v>0.6752935060221608</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6245551327065244</v>
+        <v>-0.9958215440966721</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.552039742657741</v>
+        <v>1.764799274173353</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03709858334788781</v>
+        <v>-0.05282767449030181</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08514625329684984</v>
+        <v>0.1159106892900924</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.085518271088413</v>
+        <v>8.852637876451073</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.04642580532167</v>
+        <v>10.22940102585625</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7001015110617748</v>
+        <v>0.7315575743201749</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.124947047822225</v>
+        <v>1.130228126617893</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.703672842421042</v>
+        <v>-2.031191477613028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.805094863486909</v>
+        <v>-2.4929096625548</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1872947765992267</v>
+        <v>-0.2196790506188488</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.06699196299664012</v>
+        <v>-0.09504514867420497</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.114417825637783</v>
+        <v>6.794376349195636</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.656041528122467</v>
+        <v>9.503279481432196</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.313169710882786</v>
+        <v>1.277343350631509</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.5188290344206277</v>
+        <v>0.4919408398409152</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>3.250945048064311</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04841988652351525</v>
+        <v>0.04841988652351803</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.1722691062590431</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.003378941856760211</v>
+        <v>0.003378941856760405</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.800639904133602</v>
+        <v>-3.199666564426037</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.360632421323076</v>
+        <v>-5.442758291112622</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1270204311067775</v>
+        <v>-0.141981485979261</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3042364666277957</v>
+        <v>-0.2954992804801563</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.306044031452535</v>
+        <v>9.13623526627179</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.059274650695536</v>
+        <v>4.853356297206623</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6137317312823595</v>
+        <v>0.5699913469064117</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4589408130613682</v>
+        <v>0.4574580207060707</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-0.3466276731018708</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-6.206829946682354</v>
+        <v>-6.206829946682358</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.01852574362253434</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.5283727361041711</v>
+        <v>-0.5283727361041715</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.792119926449305</v>
+        <v>-8.271202114895532</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.37473538671562</v>
+        <v>-11.20707078546833</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3487259864596169</v>
+        <v>-0.360297794365513</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7240118781434349</v>
+        <v>-0.7227401631392742</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.689377502058385</v>
+        <v>7.182419843397453</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.334631315160999</v>
+        <v>-2.312510082166603</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.4664681950266711</v>
+        <v>0.48856428882579</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.2593636255120976</v>
+        <v>-0.2636633415000247</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>6.95345417259843</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2.84572340412525</v>
+        <v>2.845723404125239</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.5152077754198814</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.1685720131569666</v>
+        <v>0.1685720131569659</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5611277854129555</v>
+        <v>0.6261970252294463</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.851041414661413</v>
+        <v>-2.728910987079326</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.02413439578949996</v>
+        <v>0.03768661655402554</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1549187642524193</v>
+        <v>-0.1346366039240559</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.74683513833544</v>
+        <v>13.35311872880447</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.953652207865422</v>
+        <v>8.183282555733179</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.337157316258416</v>
+        <v>1.301966111276516</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5466577854279949</v>
+        <v>0.5866935761119315</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>6.310353588775251</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.78581465362717</v>
+        <v>6.785814653627168</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.6142618393915692</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.3370828350901441</v>
+        <v>0.3370828350901439</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.406614741787032</v>
+        <v>2.302547387813151</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.583217816048208</v>
+        <v>2.312664035255491</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.1846673134438289</v>
+        <v>0.1942579105372974</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.07111263152348241</v>
+        <v>0.1018165746896193</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.25070037087182</v>
+        <v>9.928826469202292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.15789318479128</v>
+        <v>11.15108797768352</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>1.107947962565106</v>
+        <v>1.163745353587531</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.6282229654528892</v>
+        <v>0.6397125093610235</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.588274263369874</v>
+        <v>1.516638050449293</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.246494468044338</v>
+        <v>-1.139787116825133</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0776230416198766</v>
+        <v>0.08528023559467557</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1651799861232588</v>
+        <v>-0.1556182296323652</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.330252417419862</v>
+        <v>9.176919898876195</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.485890466925409</v>
+        <v>3.616496906431438</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7076646182415269</v>
+        <v>0.7159836527176369</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7200487566516103</v>
+        <v>0.7807416005328955</v>
       </c>
     </row>
     <row r="28">
@@ -1104,13 +1104,13 @@
         <v>4.516226054382316</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.626124397624131</v>
+        <v>3.626124397624134</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>0.3143858877609284</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.239763453345172</v>
+        <v>0.2397634533451722</v>
       </c>
     </row>
     <row r="29">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.664786226943249</v>
+        <v>2.671608683262733</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.080760508194669</v>
+        <v>1.911919311142511</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.1707465894541474</v>
+        <v>0.1724525277123475</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.1267188506876166</v>
+        <v>0.1156803848074541</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.295307463130184</v>
+        <v>6.268098569738142</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.326425410326905</v>
+        <v>5.181978373419635</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.4607974879636407</v>
+        <v>0.4702182026221208</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.3740053932370973</v>
+        <v>0.3607613928537574</v>
       </c>
     </row>
     <row r="31">
